--- a/data_excel/494.xlsx
+++ b/data_excel/494.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>媽媽</t>
   </si>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,12 +507,12 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -541,8 +545,8 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>

--- a/data_excel/494.xlsx
+++ b/data_excel/494.xlsx
@@ -117,9 +117,6 @@
     <t>吃</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>了</t>
   </si>
   <si>
@@ -129,11 +126,15 @@
     <t>。</t>
   </si>
   <si>
-    <t>-</t>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left</t>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +508,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -668,16 +669,16 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -688,7 +689,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -710,7 +711,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
